--- a/code/借阅记录.xlsx
+++ b/code/借阅记录.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaxunsong/Desktop/图书馆项目/mini-library/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiaxunsong/Desktop/Berkeley/图书馆项目/mini-library/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9A4755-FBEE-E646-9516-2124562E0901}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEAFC4C-AA2B-AA4D-9861-A0E4FD4634CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="借阅记录" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -64,7 +64,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,9 +202,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,6 +254,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,7 +451,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -447,6 +486,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>